--- a/Code/Results/Cases/Case_3_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_99/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.12813709474241</v>
+        <v>22.57776839124094</v>
       </c>
       <c r="C2">
-        <v>15.79059598738453</v>
+        <v>11.00185925728674</v>
       </c>
       <c r="D2">
-        <v>3.184471137869353</v>
+        <v>4.273324926646968</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44.62671004919624</v>
+        <v>54.03919977346005</v>
       </c>
       <c r="G2">
-        <v>2.136378374587234</v>
+        <v>3.775286636585458</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>29.89342525073119</v>
+        <v>38.23205197220723</v>
       </c>
       <c r="J2">
-        <v>6.177991373780001</v>
+        <v>9.798296835957828</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.046660469019262</v>
+        <v>12.15427369529335</v>
       </c>
       <c r="M2">
-        <v>13.30045575910151</v>
+        <v>19.79580128811288</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.85453899283219</v>
+        <v>22.36776654554976</v>
       </c>
       <c r="C3">
-        <v>14.64673029152122</v>
+        <v>10.63651331433601</v>
       </c>
       <c r="D3">
-        <v>2.992399511011428</v>
+        <v>4.227108077112563</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>43.33159525774519</v>
+        <v>53.89259137818269</v>
       </c>
       <c r="G3">
-        <v>2.148014421616274</v>
+        <v>3.779373839424425</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.3273311129608</v>
+        <v>38.19468132075307</v>
       </c>
       <c r="J3">
-        <v>6.197896028844883</v>
+        <v>9.80333678758136</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.993585764216258</v>
+        <v>12.17413094065959</v>
       </c>
       <c r="M3">
-        <v>12.84428671716004</v>
+        <v>19.78330701840359</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.04762675852529</v>
+        <v>22.24464504170485</v>
       </c>
       <c r="C4">
-        <v>13.91025888370742</v>
+        <v>10.40968002296167</v>
       </c>
       <c r="D4">
-        <v>2.871016723252117</v>
+        <v>4.198070356092988</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>42.55617222111186</v>
+        <v>53.81353205062275</v>
       </c>
       <c r="G4">
-        <v>2.155318698483197</v>
+        <v>3.782013154442323</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>28.99767178219803</v>
+        <v>38.17842232907773</v>
       </c>
       <c r="J4">
-        <v>6.210479721223473</v>
+        <v>9.806595350368942</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.964430776552774</v>
+        <v>12.18794416562806</v>
       </c>
       <c r="M4">
-        <v>12.56609235835682</v>
+        <v>19.7797575890323</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.71277465424608</v>
+        <v>22.19599119495421</v>
       </c>
       <c r="C5">
-        <v>13.60141860984745</v>
+        <v>10.31678158731031</v>
       </c>
       <c r="D5">
-        <v>2.820667698078685</v>
+        <v>4.186074150388775</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.24524225264311</v>
+        <v>53.78408017967026</v>
       </c>
       <c r="G5">
-        <v>2.158338300236857</v>
+        <v>3.783121451495909</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.8677268176394</v>
+        <v>38.17347643286408</v>
       </c>
       <c r="J5">
-        <v>6.215700124978776</v>
+        <v>9.807964571304243</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.95339561177703</v>
+        <v>12.19398099471705</v>
       </c>
       <c r="M5">
-        <v>12.45332485769584</v>
+        <v>19.77935026135742</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.65681711140763</v>
+        <v>22.18800557637348</v>
       </c>
       <c r="C6">
-        <v>13.54960534302972</v>
+        <v>10.30133313396588</v>
       </c>
       <c r="D6">
-        <v>2.812253505236233</v>
+        <v>4.184072425736872</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>42.19392103892461</v>
+        <v>53.77935697500038</v>
       </c>
       <c r="G6">
-        <v>2.158842383203329</v>
+        <v>3.783307465399331</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.84641160194931</v>
+        <v>38.17275655630923</v>
       </c>
       <c r="J6">
-        <v>6.216572592701529</v>
+        <v>9.808194428232115</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.951613799689726</v>
+        <v>12.19500804461047</v>
       </c>
       <c r="M6">
-        <v>12.43463990728681</v>
+        <v>19.7793454466314</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.04313486381267</v>
+        <v>22.24398265689241</v>
       </c>
       <c r="C7">
-        <v>13.90612924474582</v>
+        <v>10.4084288009671</v>
       </c>
       <c r="D7">
-        <v>2.870341297197272</v>
+        <v>4.197909227483644</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>42.55195829337227</v>
+        <v>53.81312364466435</v>
       </c>
       <c r="G7">
-        <v>2.155359243920551</v>
+        <v>3.782027968535021</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>28.99590165852096</v>
+        <v>38.17834882878404</v>
       </c>
       <c r="J7">
-        <v>6.21054974928125</v>
+        <v>9.806613648696921</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.964278551226759</v>
+        <v>12.18802392881599</v>
       </c>
       <c r="M7">
-        <v>12.56456893973559</v>
+        <v>19.77974788554045</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.69428968844929</v>
+        <v>22.50418598329445</v>
       </c>
       <c r="C8">
-        <v>15.40318684782197</v>
+        <v>10.8765064960799</v>
       </c>
       <c r="D8">
-        <v>3.118948252855632</v>
+        <v>4.25752818446958</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>44.17609475516075</v>
+        <v>53.98638137022404</v>
       </c>
       <c r="G8">
-        <v>2.140359154338555</v>
+        <v>3.776669049625039</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.6944470428293</v>
+        <v>38.21777802450576</v>
       </c>
       <c r="J8">
-        <v>6.184780171088407</v>
+        <v>9.800000623715954</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.027637125912125</v>
+        <v>12.16078424353032</v>
       </c>
       <c r="M8">
-        <v>13.14284422358433</v>
+        <v>19.79063942703988</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.72809462612991</v>
+        <v>23.05804308577931</v>
       </c>
       <c r="C9">
-        <v>18.07520060456342</v>
+        <v>11.76769099945719</v>
       </c>
       <c r="D9">
-        <v>3.580279862937789</v>
+        <v>4.369074637713533</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.51562659768687</v>
+        <v>54.41254750993576</v>
       </c>
       <c r="G9">
-        <v>2.112067015130408</v>
+        <v>3.767184008318156</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.21185733166768</v>
+        <v>38.34819244061746</v>
       </c>
       <c r="J9">
-        <v>6.137056325251926</v>
+        <v>9.788329793629773</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.179940696992006</v>
+        <v>12.12021569415395</v>
       </c>
       <c r="M9">
-        <v>14.28736015477627</v>
+        <v>19.84456914926637</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.99477373137769</v>
+        <v>23.4879121721897</v>
       </c>
       <c r="C10">
-        <v>19.88880548577237</v>
+        <v>12.39795481554777</v>
       </c>
       <c r="D10">
-        <v>3.905535936154762</v>
+        <v>4.447593645675741</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.06359320248993</v>
+        <v>54.77743271113368</v>
       </c>
       <c r="G10">
-        <v>2.091740687778001</v>
+        <v>3.760831394613848</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>32.42491651118365</v>
+        <v>38.47637411370391</v>
       </c>
       <c r="J10">
-        <v>6.10361911380738</v>
+        <v>9.780540322214458</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.310154548160829</v>
+        <v>12.09822631450352</v>
       </c>
       <c r="M10">
-        <v>15.13010334806564</v>
+        <v>19.90383197090238</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.0005400522113</v>
+        <v>23.68764666233932</v>
       </c>
       <c r="C11">
-        <v>20.68429549174916</v>
+        <v>12.67788639612277</v>
       </c>
       <c r="D11">
-        <v>4.051219960027749</v>
+        <v>4.482534870654556</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.24448492903504</v>
+        <v>54.95442491466137</v>
       </c>
       <c r="G11">
-        <v>2.082535791290043</v>
+        <v>3.758073467684892</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.00028360981963</v>
+        <v>38.54169364542194</v>
       </c>
       <c r="J11">
-        <v>6.088742512523631</v>
+        <v>9.777165940028153</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.37366709436136</v>
+        <v>12.0899159923117</v>
       </c>
       <c r="M11">
-        <v>15.51341873158928</v>
+        <v>19.93499848512526</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.37619797475036</v>
+        <v>23.76381362333104</v>
       </c>
       <c r="C12">
-        <v>20.98155822685931</v>
+        <v>12.78280868688509</v>
       </c>
       <c r="D12">
-        <v>4.106130773683151</v>
+        <v>4.495651586574382</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>51.69499812122558</v>
+        <v>55.02300420414436</v>
       </c>
       <c r="G12">
-        <v>2.079050569791812</v>
+        <v>3.757047947915024</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.22176580720041</v>
+        <v>38.56743244465663</v>
       </c>
       <c r="J12">
-        <v>6.083155864569109</v>
+        <v>9.775912375074869</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.398360783047597</v>
+        <v>12.08701210200183</v>
       </c>
       <c r="M12">
-        <v>15.65855860746883</v>
+        <v>19.94739947197113</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.29552028313837</v>
+        <v>23.74738716787041</v>
       </c>
       <c r="C13">
-        <v>20.9177092848399</v>
+        <v>12.76026148091401</v>
       </c>
       <c r="D13">
-        <v>4.094314890929489</v>
+        <v>4.492831817894624</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>51.59781950577721</v>
+        <v>55.00816565930398</v>
       </c>
       <c r="G13">
-        <v>2.079801249441639</v>
+        <v>3.757267975629515</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.17390146282542</v>
+        <v>38.56184457148682</v>
       </c>
       <c r="J13">
-        <v>6.084356986264808</v>
+        <v>9.776181275791286</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.393013479464503</v>
+        <v>12.08762670333918</v>
       </c>
       <c r="M13">
-        <v>15.62730049794071</v>
+        <v>19.94470216526378</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.03154835155352</v>
+        <v>23.69390270668225</v>
       </c>
       <c r="C14">
-        <v>20.70882938374488</v>
+        <v>12.68654066579423</v>
       </c>
       <c r="D14">
-        <v>4.055742195701078</v>
+        <v>4.48361630761045</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.28148059529216</v>
+        <v>54.96003594488321</v>
       </c>
       <c r="G14">
-        <v>2.082249084799028</v>
+        <v>3.757988720519763</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.01843146762809</v>
+        <v>38.54379110388919</v>
       </c>
       <c r="J14">
-        <v>6.088281964417857</v>
+        <v>9.777062323093217</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.375685602058855</v>
+        <v>12.08967221869426</v>
       </c>
       <c r="M14">
-        <v>15.52535966868842</v>
+        <v>19.93600675614287</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.86918843013048</v>
+        <v>23.66120911100125</v>
       </c>
       <c r="C15">
-        <v>20.58037587782186</v>
+        <v>12.64124069488333</v>
       </c>
       <c r="D15">
-        <v>4.032084216302197</v>
+        <v>4.477956508538493</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.08815575641748</v>
+        <v>54.93075694541501</v>
       </c>
       <c r="G15">
-        <v>2.083748339855161</v>
+        <v>3.758432648465873</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>32.92367804748733</v>
+        <v>38.532863403773</v>
       </c>
       <c r="J15">
-        <v>6.090692186478113</v>
+        <v>9.777605144631101</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.365156386846357</v>
+        <v>12.09095679644253</v>
       </c>
       <c r="M15">
-        <v>15.46291657597588</v>
+        <v>19.93075836953883</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.92830165700632</v>
+        <v>23.47493729402103</v>
       </c>
       <c r="C16">
-        <v>19.83624679081596</v>
+        <v>12.37951480687421</v>
       </c>
       <c r="D16">
-        <v>3.895975095263368</v>
+        <v>4.445294254321928</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.98687287854469</v>
+        <v>54.76608510423588</v>
       </c>
       <c r="G16">
-        <v>2.092342632466187</v>
+        <v>3.76101427561191</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>32.38780631202951</v>
+        <v>38.47224603587981</v>
       </c>
       <c r="J16">
-        <v>6.104597948730636</v>
+        <v>9.780764242127193</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.306092217239126</v>
+        <v>12.0988034455586</v>
       </c>
       <c r="M16">
-        <v>15.10505055159654</v>
+        <v>19.90187932192381</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.34154743423379</v>
+        <v>23.36168779045289</v>
       </c>
       <c r="C17">
-        <v>19.37236899568391</v>
+        <v>12.21713833908755</v>
       </c>
       <c r="D17">
-        <v>3.811939900173988</v>
+        <v>4.425055755513618</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.31696984210138</v>
+        <v>54.66786485553345</v>
       </c>
       <c r="G17">
-        <v>2.097621919364149</v>
+        <v>3.762631719022976</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>32.06523810809458</v>
+        <v>38.43685179803431</v>
       </c>
       <c r="J17">
-        <v>6.113213338722292</v>
+        <v>9.782745500294828</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.270972458609595</v>
+        <v>12.1040504157742</v>
       </c>
       <c r="M17">
-        <v>14.88548437966567</v>
+        <v>19.88523644437387</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.00047439365619</v>
+        <v>23.29694779787533</v>
       </c>
       <c r="C18">
-        <v>19.10276109677243</v>
+        <v>12.12311126353658</v>
       </c>
       <c r="D18">
-        <v>3.763385832649762</v>
+        <v>4.413342100600417</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.93369493893007</v>
+        <v>54.61240865790541</v>
       </c>
       <c r="G18">
-        <v>2.100662716104109</v>
+        <v>3.763574452796621</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.88190591709636</v>
+        <v>38.41715401295772</v>
       </c>
       <c r="J18">
-        <v>6.118200204341438</v>
+        <v>9.783900987269693</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.251173276023223</v>
+        <v>12.10722768886667</v>
       </c>
       <c r="M18">
-        <v>14.75918933463012</v>
+        <v>19.8760603430718</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.88436989886762</v>
+        <v>23.27509845183686</v>
       </c>
       <c r="C19">
-        <v>19.01098820855256</v>
+        <v>12.09117014883812</v>
       </c>
       <c r="D19">
-        <v>3.746906651216662</v>
+        <v>4.409363611239828</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.80426970698223</v>
+        <v>54.59381108837027</v>
       </c>
       <c r="G19">
-        <v>2.101693170991506</v>
+        <v>3.763895783626277</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.82020474348367</v>
+        <v>38.4105981541684</v>
       </c>
       <c r="J19">
-        <v>6.119894125314317</v>
+        <v>9.784294951805515</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.244537660585673</v>
+        <v>12.10833083885848</v>
       </c>
       <c r="M19">
-        <v>14.71642756524564</v>
+        <v>19.87302173909799</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.40437805605591</v>
+        <v>23.37370269439069</v>
       </c>
       <c r="C20">
-        <v>19.42203725274331</v>
+        <v>12.23448985797768</v>
       </c>
       <c r="D20">
-        <v>3.82090780875488</v>
+        <v>4.427217755818378</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.38807034420524</v>
+        <v>54.67821337390579</v>
       </c>
       <c r="G20">
-        <v>2.097059523859746</v>
+        <v>3.762458254545018</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>32.0993468522683</v>
+        <v>38.44055128985802</v>
       </c>
       <c r="J20">
-        <v>6.112292962911914</v>
+        <v>9.782532944895781</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.274669349283645</v>
+        <v>12.10347537679755</v>
       </c>
       <c r="M20">
-        <v>14.90885837172031</v>
+        <v>19.88696711944051</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.10922231506241</v>
+        <v>23.70959851403823</v>
       </c>
       <c r="C21">
-        <v>20.77028791144799</v>
+        <v>12.70822440725107</v>
       </c>
       <c r="D21">
-        <v>4.067078265423373</v>
+        <v>4.486326264409066</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.37430442081078</v>
+        <v>54.97413079559338</v>
       </c>
       <c r="G21">
-        <v>2.081530131055335</v>
+        <v>3.757776509726439</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.06399703235108</v>
+        <v>38.54906664322365</v>
       </c>
       <c r="J21">
-        <v>6.08712784240801</v>
+        <v>9.776802880853829</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.380757531826573</v>
+        <v>12.08906480809939</v>
       </c>
       <c r="M21">
-        <v>15.5553024183929</v>
+        <v>19.93854460638979</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.1932545529716</v>
+        <v>23.93219330974112</v>
       </c>
       <c r="C22">
-        <v>21.62844976865299</v>
+        <v>13.01149085881005</v>
       </c>
       <c r="D22">
-        <v>4.226512002334906</v>
+        <v>4.524286817208917</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>52.69202781313101</v>
+        <v>55.17658665534909</v>
       </c>
       <c r="G22">
-        <v>2.071380408552699</v>
+        <v>3.754826519476854</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.71558812126456</v>
+        <v>38.62583538999103</v>
       </c>
       <c r="J22">
-        <v>6.070953286694601</v>
+        <v>9.773199210427709</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.453855318617928</v>
+        <v>12.0810631438345</v>
       </c>
       <c r="M22">
-        <v>15.97773280208564</v>
+        <v>19.97574107898768</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.61735274173637</v>
+        <v>23.81313275915848</v>
       </c>
       <c r="C23">
-        <v>21.17243667720735</v>
+        <v>12.85024483793997</v>
       </c>
       <c r="D23">
-        <v>4.141525274920255</v>
+        <v>4.50408884641641</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>51.98684847561956</v>
+        <v>55.06771276286775</v>
       </c>
       <c r="G23">
-        <v>2.076799564193947</v>
+        <v>3.756390977907496</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.36580386097133</v>
+        <v>38.58432906136949</v>
       </c>
       <c r="J23">
-        <v>6.079561410580707</v>
+        <v>9.775109656292402</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.414487092666238</v>
+        <v>12.08520430595195</v>
       </c>
       <c r="M23">
-        <v>15.75227293994554</v>
+        <v>19.95557168818792</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.3759840001657</v>
+        <v>23.36826960274053</v>
       </c>
       <c r="C24">
-        <v>19.39959134402771</v>
+        <v>12.22664732952414</v>
       </c>
       <c r="D24">
-        <v>3.816854173472652</v>
+        <v>4.426240559055502</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.35592002347935</v>
+        <v>54.67353165485199</v>
       </c>
       <c r="G24">
-        <v>2.097313764817716</v>
+        <v>3.762536637820538</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>32.08391971230031</v>
+        <v>38.438876722098</v>
       </c>
       <c r="J24">
-        <v>6.112708959552943</v>
+        <v>9.782628989993935</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.272996767199904</v>
+        <v>12.10373485128428</v>
       </c>
       <c r="M24">
-        <v>14.89829118694747</v>
+        <v>19.88618345944738</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.92981939105258</v>
+        <v>22.90390949199011</v>
       </c>
       <c r="C25">
-        <v>17.37950105558824</v>
+        <v>11.53035955533101</v>
       </c>
       <c r="D25">
-        <v>3.458078999290216</v>
+        <v>4.339489828767221</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>46.59580790379987</v>
+        <v>54.28808911341182</v>
       </c>
       <c r="G25">
-        <v>2.119622253508864</v>
+        <v>3.769641197196187</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>30.78476176990647</v>
+        <v>38.30722370106538</v>
       </c>
       <c r="J25">
-        <v>6.149675166562566</v>
+        <v>9.791348779471889</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.135614646580218</v>
+        <v>12.12981661840994</v>
       </c>
       <c r="M25">
-        <v>13.97716332307913</v>
+        <v>19.82651255707456</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_99/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_99/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.57776839124094</v>
+        <v>21.12813709474242</v>
       </c>
       <c r="C2">
-        <v>11.00185925728674</v>
+        <v>15.79059598738447</v>
       </c>
       <c r="D2">
-        <v>4.273324926646968</v>
+        <v>3.184471137869272</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>54.03919977346005</v>
+        <v>44.6267100491964</v>
       </c>
       <c r="G2">
-        <v>3.775286636585458</v>
+        <v>2.13637837458737</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>38.23205197220723</v>
+        <v>29.89342525073134</v>
       </c>
       <c r="J2">
-        <v>9.798296835957828</v>
+        <v>6.177991373780005</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.15427369529335</v>
+        <v>7.046660469019257</v>
       </c>
       <c r="M2">
-        <v>19.79580128811288</v>
+        <v>13.3004557591015</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.36776654554976</v>
+        <v>19.85453899283221</v>
       </c>
       <c r="C3">
-        <v>10.63651331433601</v>
+        <v>14.64673029152127</v>
       </c>
       <c r="D3">
-        <v>4.227108077112563</v>
+        <v>2.992399511011357</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>53.89259137818269</v>
+        <v>43.3315952577453</v>
       </c>
       <c r="G3">
-        <v>3.779373839424425</v>
+        <v>2.148014421616269</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>38.19468132075307</v>
+        <v>29.32733111296096</v>
       </c>
       <c r="J3">
-        <v>9.80333678758136</v>
+        <v>6.197896028844783</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.17413094065959</v>
+        <v>6.993585764216119</v>
       </c>
       <c r="M3">
-        <v>19.78330701840359</v>
+        <v>12.84428671716003</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.24464504170485</v>
+        <v>19.04762675852525</v>
       </c>
       <c r="C4">
-        <v>10.40968002296167</v>
+        <v>13.91025888370737</v>
       </c>
       <c r="D4">
-        <v>4.198070356092988</v>
+        <v>2.871016723252111</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>53.81353205062275</v>
+        <v>42.5561722211117</v>
       </c>
       <c r="G4">
-        <v>3.782013154442323</v>
+        <v>2.1553186984832</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>38.17842232907773</v>
+        <v>28.99767178219789</v>
       </c>
       <c r="J4">
-        <v>9.806595350368942</v>
+        <v>6.210479721223475</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.18794416562806</v>
+        <v>6.964430776552748</v>
       </c>
       <c r="M4">
-        <v>19.7797575890323</v>
+        <v>12.56609235835677</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.19599119495421</v>
+        <v>18.71277465424603</v>
       </c>
       <c r="C5">
-        <v>10.31678158731031</v>
+        <v>13.60141860984752</v>
       </c>
       <c r="D5">
-        <v>4.186074150388775</v>
+        <v>2.820667698078896</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>53.78408017967026</v>
+        <v>42.24524225264287</v>
       </c>
       <c r="G5">
-        <v>3.783121451495909</v>
+        <v>2.158338300236728</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>38.17347643286408</v>
+        <v>28.86772681763916</v>
       </c>
       <c r="J5">
-        <v>9.807964571304243</v>
+        <v>6.215700124978811</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.19398099471705</v>
+        <v>6.953395611777133</v>
       </c>
       <c r="M5">
-        <v>19.77935026135742</v>
+        <v>12.45332485769577</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.18800557637348</v>
+        <v>18.65681711140763</v>
       </c>
       <c r="C6">
-        <v>10.30133313396588</v>
+        <v>13.54960534302976</v>
       </c>
       <c r="D6">
-        <v>4.184072425736872</v>
+        <v>2.812253505236301</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>53.77935697500038</v>
+        <v>42.19392103892461</v>
       </c>
       <c r="G6">
-        <v>3.783307465399331</v>
+        <v>2.158842383203592</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>38.17275655630923</v>
+        <v>28.84641160194931</v>
       </c>
       <c r="J6">
-        <v>9.808194428232115</v>
+        <v>6.216572592701497</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.19500804461047</v>
+        <v>6.951613799689747</v>
       </c>
       <c r="M6">
-        <v>19.7793454466314</v>
+        <v>12.43463990728679</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.24398265689241</v>
+        <v>19.04313486381267</v>
       </c>
       <c r="C7">
-        <v>10.4084288009671</v>
+        <v>13.90612924474583</v>
       </c>
       <c r="D7">
-        <v>4.197909227483644</v>
+        <v>2.870341297197234</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>53.81312364466435</v>
+        <v>42.55195829337224</v>
       </c>
       <c r="G7">
-        <v>3.782027968535021</v>
+        <v>2.155359243920551</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>38.17834882878404</v>
+        <v>28.99590165852101</v>
       </c>
       <c r="J7">
-        <v>9.806613648696921</v>
+        <v>6.210549749281383</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.18802392881599</v>
+        <v>6.964278551226721</v>
       </c>
       <c r="M7">
-        <v>19.77974788554045</v>
+        <v>12.56456893973561</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.50418598329445</v>
+        <v>20.69428968844928</v>
       </c>
       <c r="C8">
-        <v>10.8765064960799</v>
+        <v>15.40318684782197</v>
       </c>
       <c r="D8">
-        <v>4.25752818446958</v>
+        <v>3.118948252855675</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>53.98638137022404</v>
+        <v>44.17609475516075</v>
       </c>
       <c r="G8">
-        <v>3.776669049625039</v>
+        <v>2.140359154338288</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>38.21777802450576</v>
+        <v>29.69444704282925</v>
       </c>
       <c r="J8">
-        <v>9.800000623715954</v>
+        <v>6.184780171088307</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.16078424353032</v>
+        <v>7.027637125912052</v>
       </c>
       <c r="M8">
-        <v>19.79063942703988</v>
+        <v>13.14284422358429</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.05804308577931</v>
+        <v>23.72809462612991</v>
       </c>
       <c r="C9">
-        <v>11.76769099945719</v>
+        <v>18.07520060456329</v>
       </c>
       <c r="D9">
-        <v>4.369074637713533</v>
+        <v>3.580279862937795</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>54.41254750993576</v>
+        <v>47.51562659768687</v>
       </c>
       <c r="G9">
-        <v>3.767184008318156</v>
+        <v>2.112067015130401</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>38.34819244061746</v>
+        <v>31.21185733166774</v>
       </c>
       <c r="J9">
-        <v>9.788329793629773</v>
+        <v>6.137056325251796</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.12021569415395</v>
+        <v>7.179940696991963</v>
       </c>
       <c r="M9">
-        <v>19.84456914926637</v>
+        <v>14.28736015477632</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.4879121721897</v>
+        <v>25.99477373137771</v>
       </c>
       <c r="C10">
-        <v>12.39795481554777</v>
+        <v>19.88880548577245</v>
       </c>
       <c r="D10">
-        <v>4.447593645675741</v>
+        <v>3.905535936154785</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>54.77743271113368</v>
+        <v>50.06359320248996</v>
       </c>
       <c r="G10">
-        <v>3.760831394613848</v>
+        <v>2.091740687778267</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>38.47637411370391</v>
+        <v>32.42491651118367</v>
       </c>
       <c r="J10">
-        <v>9.780540322214458</v>
+        <v>6.103619113807445</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.09822631450352</v>
+        <v>7.310154548160844</v>
       </c>
       <c r="M10">
-        <v>19.90383197090238</v>
+        <v>15.13010334806564</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.68764666233932</v>
+        <v>27.0005400522113</v>
       </c>
       <c r="C11">
-        <v>12.67788639612277</v>
+        <v>20.68429549174907</v>
       </c>
       <c r="D11">
-        <v>4.482534870654556</v>
+        <v>4.051219960027966</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>54.95442491466137</v>
+        <v>51.24448492903516</v>
       </c>
       <c r="G11">
-        <v>3.758073467684892</v>
+        <v>2.082535791290043</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>38.54169364542194</v>
+        <v>33.00028360981969</v>
       </c>
       <c r="J11">
-        <v>9.777165940028153</v>
+        <v>6.088742512523666</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.0899159923117</v>
+        <v>7.373667094361457</v>
       </c>
       <c r="M11">
-        <v>19.93499848512526</v>
+        <v>15.51341873158928</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.76381362333104</v>
+        <v>27.37619797475048</v>
       </c>
       <c r="C12">
-        <v>12.78280868688509</v>
+        <v>20.98155822685938</v>
       </c>
       <c r="D12">
-        <v>4.495651586574382</v>
+        <v>4.10613077368304</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>55.02300420414436</v>
+        <v>51.69499812122573</v>
       </c>
       <c r="G12">
-        <v>3.757047947915024</v>
+        <v>2.079050569791285</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>38.56743244465663</v>
+        <v>33.22176580720051</v>
       </c>
       <c r="J12">
-        <v>9.775912375074869</v>
+        <v>6.083155864569147</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.08701210200183</v>
+        <v>7.398360783047606</v>
       </c>
       <c r="M12">
-        <v>19.94739947197113</v>
+        <v>15.65855860746881</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.74738716787041</v>
+        <v>27.29552028313832</v>
       </c>
       <c r="C13">
-        <v>12.76026148091401</v>
+        <v>20.91770928483981</v>
       </c>
       <c r="D13">
-        <v>4.492831817894624</v>
+        <v>4.094314890929539</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>55.00816565930398</v>
+        <v>51.59781950577719</v>
       </c>
       <c r="G13">
-        <v>3.757267975629515</v>
+        <v>2.079801249441639</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>38.56184457148682</v>
+        <v>33.17390146282546</v>
       </c>
       <c r="J13">
-        <v>9.776181275791286</v>
+        <v>6.084356986264805</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.08762670333918</v>
+        <v>7.393013479464535</v>
       </c>
       <c r="M13">
-        <v>19.94470216526378</v>
+        <v>15.62730049794073</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.69390270668225</v>
+        <v>27.03154835155352</v>
       </c>
       <c r="C14">
-        <v>12.68654066579423</v>
+        <v>20.70882938374477</v>
       </c>
       <c r="D14">
-        <v>4.48361630761045</v>
+        <v>4.055742195700981</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>54.96003594488321</v>
+        <v>51.28148059529207</v>
       </c>
       <c r="G14">
-        <v>3.757988720519763</v>
+        <v>2.082249084798624</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>38.54379110388919</v>
+        <v>33.01843146762806</v>
       </c>
       <c r="J14">
-        <v>9.777062323093217</v>
+        <v>6.088281964417924</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.08967221869426</v>
+        <v>7.375685602058851</v>
       </c>
       <c r="M14">
-        <v>19.93600675614287</v>
+        <v>15.52535966868842</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.66120911100125</v>
+        <v>26.86918843013047</v>
       </c>
       <c r="C15">
-        <v>12.64124069488333</v>
+        <v>20.58037587782202</v>
       </c>
       <c r="D15">
-        <v>4.477956508538493</v>
+        <v>4.032084216302292</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>54.93075694541501</v>
+        <v>51.08815575641764</v>
       </c>
       <c r="G15">
-        <v>3.758432648465873</v>
+        <v>2.08374833985516</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>38.532863403773</v>
+        <v>32.92367804748749</v>
       </c>
       <c r="J15">
-        <v>9.777605144631101</v>
+        <v>6.090692186478146</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.09095679644253</v>
+        <v>7.365156386846274</v>
       </c>
       <c r="M15">
-        <v>19.93075836953883</v>
+        <v>15.46291657597585</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.47493729402103</v>
+        <v>25.92830165700638</v>
       </c>
       <c r="C16">
-        <v>12.37951480687421</v>
+        <v>19.83624679081615</v>
       </c>
       <c r="D16">
-        <v>4.445294254321928</v>
+        <v>3.895975095263583</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>54.76608510423588</v>
+        <v>49.98687287854474</v>
       </c>
       <c r="G16">
-        <v>3.76101427561191</v>
+        <v>2.092342632466187</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>38.47224603587981</v>
+        <v>32.3878063120295</v>
       </c>
       <c r="J16">
-        <v>9.780764242127193</v>
+        <v>6.104597948730641</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.0988034455586</v>
+        <v>7.306092217239154</v>
       </c>
       <c r="M16">
-        <v>19.90187932192381</v>
+        <v>15.10505055159651</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.36168779045289</v>
+        <v>25.34154743423388</v>
       </c>
       <c r="C17">
-        <v>12.21713833908755</v>
+        <v>19.3723689956839</v>
       </c>
       <c r="D17">
-        <v>4.425055755513618</v>
+        <v>3.811939900173988</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>54.66786485553345</v>
+        <v>49.31696984210136</v>
       </c>
       <c r="G17">
-        <v>3.762631719022976</v>
+        <v>2.097621919364017</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>38.43685179803431</v>
+        <v>32.06523810809453</v>
       </c>
       <c r="J17">
-        <v>9.782745500294828</v>
+        <v>6.113213338722224</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.1040504157742</v>
+        <v>7.270972458609537</v>
       </c>
       <c r="M17">
-        <v>19.88523644437387</v>
+        <v>14.88548437966564</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.29694779787533</v>
+        <v>25.00047439365619</v>
       </c>
       <c r="C18">
-        <v>12.12311126353658</v>
+        <v>19.10276109677238</v>
       </c>
       <c r="D18">
-        <v>4.413342100600417</v>
+        <v>3.763385832649532</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>54.61240865790541</v>
+        <v>48.93369493893015</v>
       </c>
       <c r="G18">
-        <v>3.763574452796621</v>
+        <v>2.100662716104102</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>38.41715401295772</v>
+        <v>31.88190591709643</v>
       </c>
       <c r="J18">
-        <v>9.783900987269693</v>
+        <v>6.118200204341438</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.10722768886667</v>
+        <v>7.251173276023174</v>
       </c>
       <c r="M18">
-        <v>19.8760603430718</v>
+        <v>14.75918933463009</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.27509845183686</v>
+        <v>24.8843698988677</v>
       </c>
       <c r="C19">
-        <v>12.09117014883812</v>
+        <v>19.01098820855257</v>
       </c>
       <c r="D19">
-        <v>4.409363611239828</v>
+        <v>3.746906651216685</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>54.59381108837027</v>
+        <v>48.80426970698223</v>
       </c>
       <c r="G19">
-        <v>3.763895783626277</v>
+        <v>2.101693170991501</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>38.4105981541684</v>
+        <v>31.82020474348362</v>
       </c>
       <c r="J19">
-        <v>9.784294951805515</v>
+        <v>6.119894125314451</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.10833083885848</v>
+        <v>7.244537660585743</v>
       </c>
       <c r="M19">
-        <v>19.87302173909799</v>
+        <v>14.71642756524562</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.37370269439069</v>
+        <v>25.40437805605601</v>
       </c>
       <c r="C20">
-        <v>12.23448985797768</v>
+        <v>19.42203725274327</v>
       </c>
       <c r="D20">
-        <v>4.427217755818378</v>
+        <v>3.820907808754866</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>54.67821337390579</v>
+        <v>49.3880703442055</v>
       </c>
       <c r="G20">
-        <v>3.762458254545018</v>
+        <v>2.097059523859483</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>38.44055128985802</v>
+        <v>32.09934685226845</v>
       </c>
       <c r="J20">
-        <v>9.782532944895781</v>
+        <v>6.112292962911885</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.10347537679755</v>
+        <v>7.274669349283594</v>
       </c>
       <c r="M20">
-        <v>19.88696711944051</v>
+        <v>14.90885837172026</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.70959851403823</v>
+        <v>27.10922231506231</v>
       </c>
       <c r="C21">
-        <v>12.70822440725107</v>
+        <v>20.77028791144787</v>
       </c>
       <c r="D21">
-        <v>4.486326264409066</v>
+        <v>4.067078265423225</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>54.97413079559338</v>
+        <v>51.37430442081076</v>
       </c>
       <c r="G21">
-        <v>3.757776509726439</v>
+        <v>2.08153013105534</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>38.54906664322365</v>
+        <v>33.0639970323511</v>
       </c>
       <c r="J21">
-        <v>9.776802880853829</v>
+        <v>6.08712784240801</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.08906480809939</v>
+        <v>7.380757531826573</v>
       </c>
       <c r="M21">
-        <v>19.93854460638979</v>
+        <v>15.55530241839291</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.93219330974112</v>
+        <v>28.1932545529716</v>
       </c>
       <c r="C22">
-        <v>13.01149085881005</v>
+        <v>21.62844976865292</v>
       </c>
       <c r="D22">
-        <v>4.524286817208917</v>
+        <v>4.226512002334943</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>55.17658665534909</v>
+        <v>52.69202781313093</v>
       </c>
       <c r="G22">
-        <v>3.754826519476854</v>
+        <v>2.07138040855257</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>38.62583538999103</v>
+        <v>33.71558812126452</v>
       </c>
       <c r="J22">
-        <v>9.773199210427709</v>
+        <v>6.070953286694598</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.0810631438345</v>
+        <v>7.453855318617926</v>
       </c>
       <c r="M22">
-        <v>19.97574107898768</v>
+        <v>15.97773280208564</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.81313275915848</v>
+        <v>27.61735274173648</v>
       </c>
       <c r="C23">
-        <v>12.85024483793997</v>
+        <v>21.17243667720737</v>
       </c>
       <c r="D23">
-        <v>4.50408884641641</v>
+        <v>4.141525274920184</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>55.06771276286775</v>
+        <v>51.98684847561964</v>
       </c>
       <c r="G23">
-        <v>3.756390977907496</v>
+        <v>2.076799564193829</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>38.58432906136949</v>
+        <v>33.36580386097134</v>
       </c>
       <c r="J23">
-        <v>9.775109656292402</v>
+        <v>6.079561410580808</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.08520430595195</v>
+        <v>7.414487092666263</v>
       </c>
       <c r="M23">
-        <v>19.95557168818792</v>
+        <v>15.75227293994551</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.36826960274053</v>
+        <v>25.37598400016581</v>
       </c>
       <c r="C24">
-        <v>12.22664732952414</v>
+        <v>19.39959134402782</v>
       </c>
       <c r="D24">
-        <v>4.426240559055502</v>
+        <v>3.816854173472567</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>54.67353165485199</v>
+        <v>49.35592002347934</v>
       </c>
       <c r="G24">
-        <v>3.762536637820538</v>
+        <v>2.097313764817581</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>38.438876722098</v>
+        <v>32.08391971230026</v>
       </c>
       <c r="J24">
-        <v>9.782628989993935</v>
+        <v>6.112708959552876</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.10373485128428</v>
+        <v>7.272996767199817</v>
       </c>
       <c r="M24">
-        <v>19.88618345944738</v>
+        <v>14.89829118694739</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.90390949199011</v>
+        <v>22.92981939105258</v>
       </c>
       <c r="C25">
-        <v>11.53035955533101</v>
+        <v>17.3795010555883</v>
       </c>
       <c r="D25">
-        <v>4.339489828767221</v>
+        <v>3.458078999290447</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>54.28808911341182</v>
+        <v>46.59580790380008</v>
       </c>
       <c r="G25">
-        <v>3.769641197196187</v>
+        <v>2.119622253509124</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38.30722370106538</v>
+        <v>30.78476176990667</v>
       </c>
       <c r="J25">
-        <v>9.791348779471889</v>
+        <v>6.149675166562499</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.12981661840994</v>
+        <v>7.135614646580173</v>
       </c>
       <c r="M25">
-        <v>19.82651255707456</v>
+        <v>13.97716332307913</v>
       </c>
       <c r="N25">
         <v>0</v>
